--- a/crmbuild/suitex.xlsx
+++ b/crmbuild/suitex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="9495" windowHeight="3870" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="9495" windowHeight="3870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>signinbutton</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -278,6 +281,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,7 +580,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,12 +651,15 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -668,8 +675,11 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,8 +695,11 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -702,13 +715,39 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -724,10 +763,13 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -741,10 +783,13 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -758,13 +803,42 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -777,10 +851,16 @@
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -791,10 +871,16 @@
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -804,6 +890,32 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,7 +940,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,8 +956,11 @@
       <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -859,8 +974,11 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -874,8 +992,11 @@
         <v>35</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -889,8 +1010,11 @@
         <v>48</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -906,8 +1030,11 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -921,8 +1048,11 @@
         <v>50</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -938,8 +1068,11 @@
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -953,8 +1086,11 @@
         <v>52</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -966,8 +1102,11 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -981,8 +1120,11 @@
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -996,8 +1138,11 @@
         <v>47</v>
       </c>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1011,8 +1156,11 @@
         <v>48</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1022,8 +1170,11 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1031,6 +1182,29 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
